--- a/frontend/public/Sorce/AotS_cards_63_sorce.xlsx
+++ b/frontend/public/Sorce/AotS_cards_63_sorce.xlsx
@@ -4126,10 +4126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.4285714285714" defaultRowHeight="15"/>
@@ -4144,14 +4144,14 @@
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
     <col min="9" max="9" width="56.1428571428571" style="3" customWidth="1"/>
     <col min="10" max="10" width="32.5714285714286" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.8571428571429" style="3" customWidth="1"/>
-    <col min="12" max="12" width="62.1428571428571" style="4" customWidth="1"/>
-    <col min="13" max="16382" width="27.8571428571429" style="3" customWidth="1"/>
+    <col min="11" max="12" width="27.8571428571429" style="3" customWidth="1"/>
+    <col min="13" max="13" width="62.1428571428571" style="4" customWidth="1"/>
+    <col min="14" max="16382" width="27.8571428571429" style="3" customWidth="1"/>
     <col min="16383" max="16383" width="27.8571428571429" style="3"/>
     <col min="16384" max="16384" width="21.4285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4182,14 +4182,14 @@
       <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="75" spans="1:12">
+    <row r="2" ht="75" spans="1:13">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4220,14 +4220,14 @@
       <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="75" spans="1:12">
+    <row r="3" ht="75" spans="1:13">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4258,14 +4258,14 @@
       <c r="J3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" ht="75" spans="1:12">
+    <row r="4" ht="75" spans="1:13">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4296,14 +4296,14 @@
       <c r="J4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="81" spans="1:12">
+    <row r="5" ht="81" spans="1:13">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4334,14 +4334,14 @@
       <c r="J5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" ht="45" spans="1:12">
+    <row r="6" ht="45" spans="1:13">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4372,14 +4372,14 @@
       <c r="J6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" ht="90" spans="1:12">
+    <row r="7" ht="90" spans="1:13">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -4410,14 +4410,14 @@
       <c r="J7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" ht="60" spans="1:12">
+    <row r="8" ht="60" spans="1:13">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -4448,14 +4448,14 @@
       <c r="J8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" ht="45" spans="1:12">
+    <row r="9" ht="45" spans="1:13">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -4486,14 +4486,14 @@
       <c r="J9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" ht="123" customHeight="1" spans="1:12">
+    <row r="10" ht="123" customHeight="1" spans="1:13">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -4524,14 +4524,14 @@
       <c r="J10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" ht="87" customHeight="1" spans="1:12">
+    <row r="11" ht="87" customHeight="1" spans="1:13">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -4562,14 +4562,14 @@
       <c r="J11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="M11" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" ht="75" spans="1:12">
+    <row r="12" ht="75" spans="1:13">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -4600,14 +4600,14 @@
       <c r="J12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" ht="137" customHeight="1" spans="1:12">
+    <row r="13" ht="137" customHeight="1" spans="1:13">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -4638,14 +4638,14 @@
       <c r="J13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" ht="90" customHeight="1" spans="1:12">
+    <row r="14" ht="90" customHeight="1" spans="1:13">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -4676,14 +4676,14 @@
       <c r="J14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" ht="81" customHeight="1" spans="1:12">
+    <row r="15" ht="81" customHeight="1" spans="1:13">
       <c r="A15" s="2">
         <v>7</v>
       </c>
@@ -4714,14 +4714,14 @@
       <c r="J15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" ht="120" spans="1:12">
+    <row r="16" ht="120" spans="1:13">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -4752,14 +4752,14 @@
       <c r="J16" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="M16" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" ht="114" customHeight="1" spans="1:12">
+    <row r="17" ht="114" customHeight="1" spans="1:13">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -4790,14 +4790,14 @@
       <c r="J17" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" ht="105" spans="1:12">
+    <row r="18" ht="105" spans="1:13">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -4828,14 +4828,14 @@
       <c r="J18" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="M18" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" ht="75" spans="1:12">
+    <row r="19" ht="75" spans="1:13">
       <c r="A19" s="2">
         <v>9</v>
       </c>
@@ -4866,14 +4866,14 @@
       <c r="J19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" ht="127" customHeight="1" spans="1:12">
+    <row r="20" ht="127" customHeight="1" spans="1:13">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -4904,14 +4904,14 @@
       <c r="J20" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" ht="75" spans="1:12">
+    <row r="21" ht="75" spans="1:13">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -4942,14 +4942,14 @@
       <c r="J21" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" ht="75" spans="1:12">
+    <row r="22" ht="75" spans="1:13">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -4980,14 +4980,14 @@
       <c r="J22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="M22" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" ht="60" spans="1:12">
+    <row r="23" ht="60" spans="1:13">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -5018,14 +5018,14 @@
       <c r="J23" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="M23" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="24" ht="75" spans="1:12">
+    <row r="24" ht="75" spans="1:13">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -5056,14 +5056,14 @@
       <c r="J24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="M24" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="90" spans="1:12">
+    <row r="25" s="1" customFormat="1" ht="90" spans="1:13">
       <c r="A25" s="7">
         <v>12</v>
       </c>
@@ -5094,14 +5094,14 @@
       <c r="J25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="26" ht="90" spans="1:12">
+    <row r="26" ht="90" spans="1:13">
       <c r="A26" s="2">
         <v>13</v>
       </c>
@@ -5132,14 +5132,14 @@
       <c r="J26" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="M26" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="27" ht="75" spans="1:12">
+    <row r="27" ht="75" spans="1:13">
       <c r="A27" s="2">
         <v>13</v>
       </c>
@@ -5170,14 +5170,14 @@
       <c r="J27" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="28" ht="60" spans="1:12">
+    <row r="28" ht="60" spans="1:13">
       <c r="A28" s="2">
         <v>14</v>
       </c>
@@ -5208,14 +5208,14 @@
       <c r="J28" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="M28" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="29" ht="60" spans="1:12">
+    <row r="29" ht="60" spans="1:13">
       <c r="A29" s="2">
         <v>14</v>
       </c>
@@ -5246,14 +5246,14 @@
       <c r="J29" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="M29" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="30" ht="45" spans="1:12">
+    <row r="30" ht="45" spans="1:13">
       <c r="A30" s="2">
         <v>15</v>
       </c>
@@ -5284,14 +5284,14 @@
       <c r="J30" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="M30" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="31" ht="75" spans="1:12">
+    <row r="31" ht="75" spans="1:13">
       <c r="A31" s="2">
         <v>15</v>
       </c>
@@ -5322,14 +5322,14 @@
       <c r="J31" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="M31" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="32" ht="105" spans="1:12">
+    <row r="32" ht="105" spans="1:13">
       <c r="A32" s="2">
         <v>16</v>
       </c>
@@ -5360,14 +5360,14 @@
       <c r="J32" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="M32" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="33" ht="90" spans="1:12">
+    <row r="33" ht="90" spans="1:13">
       <c r="A33" s="2">
         <v>16</v>
       </c>
@@ -5398,14 +5398,14 @@
       <c r="J33" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="M33" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="34" ht="120" spans="1:12">
+    <row r="34" ht="120" spans="1:13">
       <c r="A34" s="2">
         <v>17</v>
       </c>
@@ -5436,14 +5436,14 @@
       <c r="J34" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="M34" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="35" ht="105" spans="1:12">
+    <row r="35" ht="105" spans="1:13">
       <c r="A35" s="2">
         <v>17</v>
       </c>
@@ -5474,14 +5474,14 @@
       <c r="J35" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="M35" s="10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="36" ht="90" spans="1:12">
+    <row r="36" ht="90" spans="1:13">
       <c r="A36" s="2">
         <v>18</v>
       </c>
@@ -5512,14 +5512,14 @@
       <c r="J36" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="M36" s="10" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="37" ht="105" spans="1:12">
+    <row r="37" ht="105" spans="1:13">
       <c r="A37" s="2">
         <v>18</v>
       </c>
@@ -5550,14 +5550,14 @@
       <c r="J37" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="M37" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="45" spans="1:12">
+    <row r="38" s="1" customFormat="1" ht="45" spans="1:13">
       <c r="A38" s="7">
         <v>19</v>
       </c>
@@ -5588,14 +5588,14 @@
       <c r="J38" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="M38" s="11" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="39" ht="45" spans="1:12">
+    <row r="39" ht="45" spans="1:13">
       <c r="A39" s="2">
         <v>19</v>
       </c>
@@ -5626,14 +5626,14 @@
       <c r="J39" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="M39" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="40" ht="60" spans="1:12">
+    <row r="40" ht="60" spans="1:13">
       <c r="A40" s="2">
         <v>20</v>
       </c>
@@ -5664,14 +5664,14 @@
       <c r="J40" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="M40" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="41" ht="75" spans="1:12">
+    <row r="41" ht="75" spans="1:13">
       <c r="A41" s="2">
         <v>20</v>
       </c>
@@ -5702,14 +5702,14 @@
       <c r="J41" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="M41" s="10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="42" ht="99" spans="1:12">
+    <row r="42" ht="99" spans="1:13">
       <c r="A42" s="2">
         <v>21</v>
       </c>
@@ -5740,14 +5740,14 @@
       <c r="J42" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="M42" s="10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="43" ht="45" spans="1:12">
+    <row r="43" ht="45" spans="1:13">
       <c r="A43" s="2">
         <v>21</v>
       </c>
@@ -5778,14 +5778,14 @@
       <c r="J43" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="M43" s="10" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="44" ht="45" spans="1:12">
+    <row r="44" ht="45" spans="1:13">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -5816,14 +5816,14 @@
       <c r="J44" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="M44" s="10" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="45" ht="45" spans="1:12">
+    <row r="45" ht="45" spans="1:13">
       <c r="A45" s="2">
         <v>22</v>
       </c>
@@ -5854,14 +5854,14 @@
       <c r="J45" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="M45" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="46" ht="45" spans="1:12">
+    <row r="46" ht="45" spans="1:13">
       <c r="A46" s="2">
         <v>23</v>
       </c>
@@ -5892,14 +5892,14 @@
       <c r="J46" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="M46" s="10" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="47" ht="60" spans="1:12">
+    <row r="47" ht="60" spans="1:13">
       <c r="A47" s="2">
         <v>23</v>
       </c>
@@ -5930,14 +5930,14 @@
       <c r="J47" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="M47" s="10" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="48" ht="60" spans="1:12">
+    <row r="48" ht="60" spans="1:13">
       <c r="A48" s="2">
         <v>24</v>
       </c>
@@ -5968,14 +5968,14 @@
       <c r="J48" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="L48" s="10" t="s">
+      <c r="M48" s="10" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="49" ht="60" spans="1:12">
+    <row r="49" ht="60" spans="1:13">
       <c r="A49" s="2">
         <v>24</v>
       </c>
@@ -6006,14 +6006,14 @@
       <c r="J49" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="M49" s="10" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="50" ht="60" spans="1:12">
+    <row r="50" ht="60" spans="1:13">
       <c r="A50" s="2">
         <v>25</v>
       </c>
@@ -6044,14 +6044,14 @@
       <c r="J50" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="M50" s="10" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="51" ht="60" spans="1:12">
+    <row r="51" ht="60" spans="1:13">
       <c r="A51" s="2">
         <v>25</v>
       </c>
@@ -6082,14 +6082,14 @@
       <c r="J51" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="L51" s="10" t="s">
+      <c r="M51" s="10" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="52" ht="60" spans="1:12">
+    <row r="52" ht="60" spans="1:13">
       <c r="A52" s="2">
         <v>26</v>
       </c>
@@ -6120,14 +6120,14 @@
       <c r="J52" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="M52" s="10" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="53" ht="60" spans="1:12">
+    <row r="53" ht="60" spans="1:13">
       <c r="A53" s="2">
         <v>26</v>
       </c>
@@ -6158,14 +6158,14 @@
       <c r="J53" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="M53" s="10" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="54" ht="45" spans="1:12">
+    <row r="54" ht="45" spans="1:13">
       <c r="A54" s="2">
         <v>27</v>
       </c>
@@ -6196,14 +6196,14 @@
       <c r="J54" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="L54" s="10" t="s">
+      <c r="M54" s="10" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="55" ht="45" spans="1:12">
+    <row r="55" ht="45" spans="1:13">
       <c r="A55" s="2">
         <v>27</v>
       </c>
@@ -6234,14 +6234,14 @@
       <c r="J55" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="M55" s="10" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="56" ht="60" spans="1:12">
+    <row r="56" ht="60" spans="1:13">
       <c r="A56" s="2">
         <v>28</v>
       </c>
@@ -6272,14 +6272,14 @@
       <c r="J56" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="L56" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="L56" s="10" t="s">
+      <c r="M56" s="10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="57" ht="60" spans="1:12">
+    <row r="57" ht="60" spans="1:13">
       <c r="A57" s="2">
         <v>28</v>
       </c>
@@ -6310,14 +6310,14 @@
       <c r="J57" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="L57" s="10" t="s">
+      <c r="M57" s="10" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="58" ht="60" spans="1:12">
+    <row r="58" ht="60" spans="1:13">
       <c r="A58" s="2">
         <v>29</v>
       </c>
@@ -6348,14 +6348,14 @@
       <c r="J58" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="L58" s="10" t="s">
+      <c r="M58" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="59" ht="60" spans="1:12">
+    <row r="59" ht="60" spans="1:13">
       <c r="A59" s="2">
         <v>29</v>
       </c>
@@ -6386,14 +6386,14 @@
       <c r="J59" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="L59" s="10" t="s">
+      <c r="M59" s="10" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="60" ht="60" spans="1:12">
+    <row r="60" ht="60" spans="1:13">
       <c r="A60" s="2">
         <v>30</v>
       </c>
@@ -6424,14 +6424,14 @@
       <c r="J60" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="L60" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="L60" s="10" t="s">
+      <c r="M60" s="10" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="61" ht="66" spans="1:12">
+    <row r="61" ht="66" spans="1:13">
       <c r="A61" s="2">
         <v>30</v>
       </c>
@@ -6462,14 +6462,14 @@
       <c r="J61" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="L61" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="L61" s="10" t="s">
+      <c r="M61" s="10" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="62" ht="60" spans="1:12">
+    <row r="62" ht="60" spans="1:13">
       <c r="A62" s="2">
         <v>31</v>
       </c>
@@ -6500,14 +6500,14 @@
       <c r="J62" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="L62" s="10" t="s">
+      <c r="M62" s="10" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="63" ht="60" spans="1:12">
+    <row r="63" ht="60" spans="1:13">
       <c r="A63" s="2">
         <v>31</v>
       </c>
@@ -6538,14 +6538,14 @@
       <c r="J63" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="L63" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="L63" s="10" t="s">
+      <c r="M63" s="10" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="64" ht="45" spans="1:12">
+    <row r="64" ht="45" spans="1:13">
       <c r="A64" s="2">
         <v>32</v>
       </c>
@@ -6576,10 +6576,10 @@
       <c r="J64" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="L64" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="L64" s="10" t="s">
+      <c r="M64" s="10" t="s">
         <v>573</v>
       </c>
     </row>
@@ -8247,7 +8247,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" ht="60" spans="1:12">
+    <row r="117" s="1" customFormat="1" ht="60" spans="1:13">
       <c r="A117" s="7">
         <v>58</v>
       </c>
@@ -8278,7 +8278,7 @@
       <c r="J117" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
     </row>
     <row r="118" ht="60" spans="1:10">
       <c r="A118" s="2">

--- a/frontend/public/Sorce/AotS_cards_63_sorce.xlsx
+++ b/frontend/public/Sorce/AotS_cards_63_sorce.xlsx
@@ -4128,8 +4128,8 @@
   <sheetPr/>
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L$1:M$1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.4285714285714" defaultRowHeight="15"/>

--- a/frontend/public/Sorce/AotS_cards_63_sorce.xlsx
+++ b/frontend/public/Sorce/AotS_cards_63_sorce.xlsx
@@ -4128,7 +4128,7 @@
   <sheetPr/>
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
